--- a/resources/Capitals.xlsx
+++ b/resources/Capitals.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clarusway\IdeaProjects\CWJUnitProject\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef8c60c7ecf131d2/Masaüstü/IdeaProjects/JunitProject/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D6AAB-001D-4A18-A415-F077731F95E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{682D6AAB-001D-4A18-A415-F077731F95E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B38C57BE-A4B8-4D69-B48B-F8AD00C4B7F6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FirstnameLastname" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="168">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -89,12 +90,448 @@
   </si>
   <si>
     <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Vertie</t>
+  </si>
+  <si>
+    <t>Zulauf</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Kiehn</t>
+  </si>
+  <si>
+    <t>Tenesha</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>Chas</t>
+  </si>
+  <si>
+    <t>Hermiston</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Bechtelar</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
+    <t>Kuhlman</t>
+  </si>
+  <si>
+    <t>Aundrea</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>Lorenza</t>
+  </si>
+  <si>
+    <t>Goldner</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Haag</t>
+  </si>
+  <si>
+    <t>Rudolph</t>
+  </si>
+  <si>
+    <t>Gleichner</t>
+  </si>
+  <si>
+    <t>Aliza</t>
+  </si>
+  <si>
+    <t>Dickens</t>
+  </si>
+  <si>
+    <t>Rosamond</t>
+  </si>
+  <si>
+    <t>Ernser</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Hoppe</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Herzog</t>
+  </si>
+  <si>
+    <t>Sharita</t>
+  </si>
+  <si>
+    <t>Kemmer</t>
+  </si>
+  <si>
+    <t>Tena</t>
+  </si>
+  <si>
+    <t>D'Amore</t>
+  </si>
+  <si>
+    <t>Beau</t>
+  </si>
+  <si>
+    <t>Dickinson</t>
+  </si>
+  <si>
+    <t>Marisol</t>
+  </si>
+  <si>
+    <t>Kreiger</t>
+  </si>
+  <si>
+    <t>Ila</t>
+  </si>
+  <si>
+    <t>O'Kon</t>
+  </si>
+  <si>
+    <t>Jennell</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Robby</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Anamaria</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Beata</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Blythe</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Antonietta</t>
+  </si>
+  <si>
+    <t>Spinka</t>
+  </si>
+  <si>
+    <t>Tamra</t>
+  </si>
+  <si>
+    <t>Bernier</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Hirthe</t>
+  </si>
+  <si>
+    <t>Labadie</t>
+  </si>
+  <si>
+    <t>Lucila</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Mraz</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Sharlene</t>
+  </si>
+  <si>
+    <t>Langworth</t>
+  </si>
+  <si>
+    <t>Sarita</t>
+  </si>
+  <si>
+    <t>Bahringer</t>
+  </si>
+  <si>
+    <t>Reina</t>
+  </si>
+  <si>
+    <t>Mosciski</t>
+  </si>
+  <si>
+    <t>Ezekiel</t>
+  </si>
+  <si>
+    <t>Hegmann</t>
+  </si>
+  <si>
+    <t>Reyna</t>
+  </si>
+  <si>
+    <t>Stanton</t>
+  </si>
+  <si>
+    <t>Dominic</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>Kassulke</t>
+  </si>
+  <si>
+    <t>Joelle</t>
+  </si>
+  <si>
+    <t>O'Conner</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Kuvalis</t>
+  </si>
+  <si>
+    <t>Stacia</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>Bins</t>
+  </si>
+  <si>
+    <t>Samual</t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>Runolfsson</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Kutch</t>
+  </si>
+  <si>
+    <t>Nona</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Clotilde</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>50065 Feil Oval, West Averyfort, FL 46627-9944</t>
+  </si>
+  <si>
+    <t>Apt. 411 988 Greenholt Field, New Leonelland, OK 17036-8588</t>
+  </si>
+  <si>
+    <t>Apt. 937 3112 Erick River, Port Nora, ME 17114-3264</t>
+  </si>
+  <si>
+    <t>Apt. 385 67199 Larkin Mews, East Clementeland, GA 60069</t>
+  </si>
+  <si>
+    <t>Suite 843 2835 Stroman Lakes, Croninborough, MA 43043</t>
+  </si>
+  <si>
+    <t>2229 Jamey Glen, Odismouth, KS 68981</t>
+  </si>
+  <si>
+    <t>Suite 233 5155 Annemarie Orchard, Gabrielemouth, SC 75269</t>
+  </si>
+  <si>
+    <t>6611 Towne Burgs, North Alishia, HI 87459-2724</t>
+  </si>
+  <si>
+    <t>1297 Emelia Flat, North Stephaine, NM 14166</t>
+  </si>
+  <si>
+    <t>Suite 943 2053 Babara Flat, East Jennette, NH 61032</t>
+  </si>
+  <si>
+    <t>1702 Caitlyn Parkway, East Gregory, CO 17111</t>
+  </si>
+  <si>
+    <t>Suite 816 69789 Friesen Common, Runolfsdottirshire, MO 40062-4389</t>
+  </si>
+  <si>
+    <t>68701 Juliette Knolls, West Ron, ME 59549-9477</t>
+  </si>
+  <si>
+    <t>0530 Chantell Islands, Harberport, CA 53943</t>
+  </si>
+  <si>
+    <t>Suite 838 47407 Mose Trafficway, Cassiborough, GA 55970</t>
+  </si>
+  <si>
+    <t>Apt. 171 566 Smith Mill, Blaineview, FL 72435-1657</t>
+  </si>
+  <si>
+    <t>534 Bobbie Meadows, Wehnerburgh, PA 18268</t>
+  </si>
+  <si>
+    <t>52666 Mayer Lock, East Jeffery, WY 95172-5201</t>
+  </si>
+  <si>
+    <t>04544 Schuppe Forge, Dibbertchester, NH 73736-3552</t>
+  </si>
+  <si>
+    <t>Apt. 373 06005 Hansen Throughway, Hudsonberg, SD 27479-5968</t>
+  </si>
+  <si>
+    <t>Apt. 669 97101 Faustina Creek, Stoltenbergchester, OH 80608</t>
+  </si>
+  <si>
+    <t>6564 Roslyn Orchard, Port Lakeeshaport, OH 22103</t>
+  </si>
+  <si>
+    <t>Apt. 829 717 Terry Plains, Port Sheltonhaven, DE 89314</t>
+  </si>
+  <si>
+    <t>4886 Rodriguez Coves, West Verdellstad, OH 06478</t>
+  </si>
+  <si>
+    <t>Apt. 262 129 Elijah Mills, Koeppchester, IN 83451</t>
+  </si>
+  <si>
+    <t>Suite 717 53593 Jaskolski Expressway, North Shontaview, CO 03664-3227</t>
+  </si>
+  <si>
+    <t>Apt. 640 4013 Brady Harbor, Williamsonfort, NH 97303-7936</t>
+  </si>
+  <si>
+    <t>Suite 635 3824 Goodwin Valley, North Dinorahstad, MN 50670</t>
+  </si>
+  <si>
+    <t>42432 Sofia Trafficway, West Lorilee, OR 79676</t>
+  </si>
+  <si>
+    <t>2406 Lenard Shoal, North Ingridbury, NJ 63308</t>
+  </si>
+  <si>
+    <t>Apt. 478 6396 Veum Turnpike, Strosinberg, MO 57279</t>
+  </si>
+  <si>
+    <t>Apt. 475 4361 Schulist Trail, Weberville, WV 24774-6682</t>
+  </si>
+  <si>
+    <t>Suite 741 887 Erdman Brooks, Darrellfort, VT 22474</t>
+  </si>
+  <si>
+    <t>Suite 719 6583 Milford Mountains, South Eleonore, MI 54653</t>
+  </si>
+  <si>
+    <t>631 Alexandra Stream, East Moises, ME 92019</t>
+  </si>
+  <si>
+    <t>Suite 189 750 Season Plaza, Maryrosetown, SC 26847</t>
+  </si>
+  <si>
+    <t>7104 Travis Heights, Christeenfort, IA 00587</t>
+  </si>
+  <si>
+    <t>Apt. 981 612 Aubrey Grove, West Laure, DE 00395</t>
+  </si>
+  <si>
+    <t>Apt. 455 10228 Koelpin Union, Keramouth, LA 54486</t>
+  </si>
+  <si>
+    <t>Suite 005 89626 Bao Field, New Florentino, WV 99144-2140</t>
+  </si>
+  <si>
+    <t>30865 Tammera Shoal, New Delisaview, ME 42326</t>
+  </si>
+  <si>
+    <t>Suite 721 3618 Lowe Estates, Pasqualebury, TX 13945</t>
+  </si>
+  <si>
+    <t>Suite 767 5496 Bashirian Turnpike, Brandenbury, DE 03075</t>
+  </si>
+  <si>
+    <t>Apt. 191 809 Glenna Way, North Kip, NV 50682-8020</t>
+  </si>
+  <si>
+    <t>824 Fay Mount, New Larry, WY 29921</t>
+  </si>
+  <si>
+    <t>Suite 645 396 Rogelio Keys, Lake Christopermouth, CA 46404</t>
+  </si>
+  <si>
+    <t>Apt. 769 3424 Altenwerth Ville, Streichview, AL 23617</t>
+  </si>
+  <si>
+    <t>Suite 972 8593 Sharie Locks, Karleenfurt, MT 74109-3557</t>
+  </si>
+  <si>
+    <t>Apt. 800 733 Fisher Ville, South Brianview, IA 77902-3193</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -178,6 +615,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,7 +835,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -482,4 +923,267 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="C1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>